--- a/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.3.xlsx
+++ b/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\0.98-3-Validatie-_en_conformiteitsregels_TPOD\documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2F8DEC-7E6B-47CF-8709-08988CA758F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712DA865-1931-48EF-A806-037B631B09D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
@@ -21008,8 +21008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFBB57E-3244-4327-8FA7-3800EF9A5F79}">
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -23002,7 +23002,7 @@
       <c r="P41" s="14"/>
     </row>
     <row r="42" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="32" t="s">
         <v>655</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -23338,7 +23338,7 @@
       <c r="P48" s="14"/>
     </row>
     <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="30" t="s">
         <v>529</v>
       </c>
       <c r="B49" s="23" t="s">
@@ -23386,7 +23386,7 @@
       <c r="P49" s="14"/>
     </row>
     <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="30" t="s">
         <v>528</v>
       </c>
       <c r="B50" s="23" t="s">
@@ -23722,7 +23722,7 @@
       <c r="P56" s="14"/>
     </row>
     <row r="57" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="32" t="s">
         <v>60</v>
       </c>
       <c r="B57" s="11" t="s">
